--- a/Report/ReportDetail.xlsx
+++ b/Report/ReportDetail.xlsx
@@ -44,7 +44,7 @@
     <t>2019/12/1 13:00</t>
   </si>
   <si>
-    <t>2019-12-13 17:22:18</t>
+    <t>2019-12-20 14:57:01</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>37秒</t>
+    <t>104秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -125,6 +125,24 @@
     <t xml:space="preserve">点击同意
 点击允许
 点击允许
+进入个人中心
+点击登录
+点击账号密码登录
+输入账号
+输入密码
+点击登录
+向上滑动
+点击颜值贷
+点击借款
+点击我知道了
+点击输入金额
+点击输入金额2
+点击期数
+点击期数
+点击银行卡
+点击银行卡
+点击确定
+切换
 </t>
   </si>
   <si>
